--- a/MonthlySummary.xlsx
+++ b/MonthlySummary.xlsx
@@ -10,13 +10,16 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Fullerton" sheetId="2" r:id="rId2"/>
     <sheet name="FullertonForks" sheetId="3" r:id="rId3"/>
+    <sheet name="CerritosForks" sheetId="4" r:id="rId4"/>
+    <sheet name="DowneyForks" sheetId="5" r:id="rId5"/>
+    <sheet name="RanchoForks" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="293">
   <si>
     <t>Totals</t>
   </si>
@@ -24,147 +27,147 @@
     <t>Account</t>
   </si>
   <si>
+    <t>56110 - Temp Labor - Reg</t>
+  </si>
+  <si>
+    <t>51910 - Fuel / Transportation</t>
+  </si>
+  <si>
+    <t>67110-1 - Materials &amp; Supplies - Company</t>
+  </si>
+  <si>
+    <t>57200 - Vehicle Maintenance-Repairs</t>
+  </si>
+  <si>
+    <t>57600 - Vehicle Rental / Transportation</t>
+  </si>
+  <si>
+    <t>56180 - Temp Labor - Unloading</t>
+  </si>
+  <si>
+    <t>51510 - Forklift - Rental</t>
+  </si>
+  <si>
+    <t>56120 - Temp Labor - O/T D/T</t>
+  </si>
+  <si>
+    <t>51520 - Forklift - Repair</t>
+  </si>
+  <si>
+    <t>16030 - Warehouse Equipment</t>
+  </si>
+  <si>
+    <t>64800 - Improve, Maint &amp; Repairs</t>
+  </si>
+  <si>
+    <t>56600 - Tires &amp; Transportation</t>
+  </si>
+  <si>
+    <t>66500 - Utilities</t>
+  </si>
+  <si>
+    <t>51210 - Computer Data &amp; Software - CLI</t>
+  </si>
+  <si>
+    <t>51920 - Fuel / Propane</t>
+  </si>
+  <si>
+    <t>65710 - Phone - Cellular</t>
+  </si>
+  <si>
+    <t>51530 - Forklift - Scheduled Maintenance</t>
+  </si>
+  <si>
+    <t>51240 - Computer Data &amp; Software - Software &amp; Licensing</t>
+  </si>
+  <si>
     <t>16010 - Racking Equipment</t>
   </si>
   <si>
+    <t>65730 - Phone - Phone and Data Usage</t>
+  </si>
+  <si>
+    <t>53300 - Laundry and Uniform</t>
+  </si>
+  <si>
+    <t>65300 - Security</t>
+  </si>
+  <si>
+    <t>63800 - Outside Professional Services</t>
+  </si>
+  <si>
+    <t>66560 - Trash, Water, Etc.</t>
+  </si>
+  <si>
+    <t>51220 - Computer Data &amp; Software - Cheetah</t>
+  </si>
+  <si>
+    <t>54830 - 54830 - Drayage</t>
+  </si>
+  <si>
+    <t>51300 - DMV / TRANS Fees</t>
+  </si>
+  <si>
+    <t>56800 - Vehicle Washing</t>
+  </si>
+  <si>
+    <t>56130 - Temp Labor - Hol</t>
+  </si>
+  <si>
+    <t>56150 - Temp Labor - H/I</t>
+  </si>
+  <si>
+    <t>63700 - Office Expense</t>
+  </si>
+  <si>
+    <t>56700 - Towing / Roadside / Transportat</t>
+  </si>
+  <si>
+    <t>61120 - Computer Hardware</t>
+  </si>
+  <si>
+    <t>67130 - Whse Training &amp; Certification</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>57320 - Drug Screen</t>
+  </si>
+  <si>
+    <t>51250 - Computer Data &amp; Software - EDI</t>
+  </si>
+  <si>
     <t>16020 - Transportation Equipment</t>
   </si>
   <si>
-    <t>16030 - Warehouse Equipment</t>
-  </si>
-  <si>
-    <t>51210 - Computer Data &amp; Software - CLI</t>
-  </si>
-  <si>
-    <t>51220 - Computer Data &amp; Software - Cheetah</t>
-  </si>
-  <si>
-    <t>51240 - Computer Data &amp; Software - Software &amp; Licensing</t>
-  </si>
-  <si>
-    <t>51250 - Computer Data &amp; Software - EDI</t>
-  </si>
-  <si>
-    <t>51300 - DMV / TRANS Fees</t>
-  </si>
-  <si>
-    <t>51510 - Forklift - Rental</t>
-  </si>
-  <si>
-    <t>51520 - Forklift - Repair</t>
-  </si>
-  <si>
-    <t>51530 - Forklift - Scheduled Maintenance</t>
-  </si>
-  <si>
-    <t>51910 - Fuel / Transportation</t>
-  </si>
-  <si>
-    <t>51920 - Fuel / Propane</t>
-  </si>
-  <si>
-    <t>53300 - Laundry and Uniform</t>
-  </si>
-  <si>
-    <t>54830 - 54830 - Drayage</t>
-  </si>
-  <si>
-    <t>56110 - Temp Labor - Reg</t>
-  </si>
-  <si>
-    <t>56120 - Temp Labor - O/T D/T</t>
-  </si>
-  <si>
-    <t>56130 - Temp Labor - Hol</t>
-  </si>
-  <si>
-    <t>56150 - Temp Labor - H/I</t>
-  </si>
-  <si>
-    <t>56180 - Temp Labor - Unloading</t>
-  </si>
-  <si>
     <t>56500 - Tariffs</t>
   </si>
   <si>
-    <t>56600 - Tires &amp; Transportation</t>
-  </si>
-  <si>
-    <t>56700 - Towing / Roadside / Transportat</t>
-  </si>
-  <si>
-    <t>56800 - Vehicle Washing</t>
-  </si>
-  <si>
-    <t>57200 - Vehicle Maintenance-Repairs</t>
+    <t>57330 - Log Books</t>
+  </si>
+  <si>
+    <t>65720 - Phone - Labor, Hdwe &amp; License</t>
+  </si>
+  <si>
+    <t>61500 - Courier Service Expense</t>
+  </si>
+  <si>
+    <t>61190 - Whse-Invent Software/Barcoding</t>
+  </si>
+  <si>
+    <t>62400 - Fines, Courts Costs, Tickets</t>
+  </si>
+  <si>
+    <t>60000 - Advertise, Promo</t>
+  </si>
+  <si>
+    <t>57360 - Safety - Transportation</t>
   </si>
   <si>
     <t>57300 - Vehicle Maintenance - Safety</t>
   </si>
   <si>
-    <t>57320 - Drug Screen</t>
-  </si>
-  <si>
-    <t>57330 - Log Books</t>
-  </si>
-  <si>
-    <t>57360 - Safety - Transportation</t>
-  </si>
-  <si>
-    <t>57600 - Vehicle Rental / Transportation</t>
-  </si>
-  <si>
-    <t>60000 - Advertise, Promo</t>
-  </si>
-  <si>
-    <t>61120 - Computer Hardware</t>
-  </si>
-  <si>
-    <t>61190 - Whse-Invent Software/Barcoding</t>
-  </si>
-  <si>
-    <t>61500 - Courier Service Expense</t>
-  </si>
-  <si>
-    <t>62400 - Fines, Courts Costs, Tickets</t>
-  </si>
-  <si>
-    <t>63700 - Office Expense</t>
-  </si>
-  <si>
-    <t>63800 - Outside Professional Services</t>
-  </si>
-  <si>
-    <t>64800 - Improve, Maint &amp; Repairs</t>
-  </si>
-  <si>
-    <t>65300 - Security</t>
-  </si>
-  <si>
-    <t>65710 - Phone - Cellular</t>
-  </si>
-  <si>
-    <t>65720 - Phone - Labor, Hdwe &amp; License</t>
-  </si>
-  <si>
-    <t>65730 - Phone - Phone and Data Usage</t>
-  </si>
-  <si>
-    <t>66500 - Utilities</t>
-  </si>
-  <si>
-    <t>66560 - Trash, Water, Etc.</t>
-  </si>
-  <si>
-    <t>67110-1 - Materials &amp; Supplies - Company</t>
-  </si>
-  <si>
-    <t>67130 - Whse Training &amp; Certification</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>Voucher #</t>
   </si>
   <si>
@@ -856,6 +859,45 @@
   </si>
   <si>
     <t>Fullerton</t>
+  </si>
+  <si>
+    <t>2833 - Forklift - F5 Propane - Nissan - CPL01-9N2833</t>
+  </si>
+  <si>
+    <t>1-479149 - Forklift-S9-Electric-Crown-SwingReach-1A479149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53011 - Forklift - F8 - Toyota Propane Forklift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17855 - Forklift - P4 - Order Picker </t>
+  </si>
+  <si>
+    <t>21 - Forklift - P21 - 540-11-A11021</t>
+  </si>
+  <si>
+    <t>1-478892 - Forklift-S10-Electric-Crown-SwingReach-1A478892</t>
+  </si>
+  <si>
+    <t>261632 - Forklift - P5 - Electric Raymond Order Picker</t>
+  </si>
+  <si>
+    <t>20 - Forklift - P20 -540-11-A11016</t>
+  </si>
+  <si>
+    <t>90002 - Forklift - F2</t>
+  </si>
+  <si>
+    <t>3235 - Forklift - S3 - Swing Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53012 - Forklift - F9 - Propane Toyota Forklift </t>
+  </si>
+  <si>
+    <t>01579 - Forklift - P9-Electric-Hyster-C174N01579W</t>
+  </si>
+  <si>
+    <t>7758 - Forklift - R4 - Standup</t>
   </si>
 </sst>
 </file>
@@ -1261,28 +1303,28 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>357465.65</v>
       </c>
       <c r="C2">
-        <v>25966.37</v>
+        <v>327135.72</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>406002.192</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>356542.3</v>
       </c>
       <c r="F2">
-        <v>6949.93</v>
+        <v>343148.76</v>
       </c>
       <c r="G2">
-        <v>32119.47</v>
+        <v>380903.8336</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>350025.0498</v>
       </c>
       <c r="I2">
-        <v>65035.77</v>
+        <v>2521223.5054</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1290,28 +1332,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100077.526717</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>88736.020609</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>128303.626935</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>111033.692146</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>119701.483263</v>
       </c>
       <c r="G3">
-        <v>1416.25</v>
+        <v>141061.36657</v>
       </c>
       <c r="H3">
-        <v>1426.25</v>
+        <v>122369.2041235</v>
       </c>
       <c r="I3">
-        <v>2842.5</v>
+        <v>811282.9203635</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1319,28 +1361,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>94319.976375</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>119864.894</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>115525.1205</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>65467.72415</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>86175.25445000001</v>
       </c>
       <c r="G4">
-        <v>166440</v>
+        <v>110170.6386</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>100010.209875</v>
       </c>
       <c r="I4">
-        <v>166440</v>
+        <v>691533.8179500001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1348,28 +1390,28 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13522.2217</v>
+        <v>69079.58165000001</v>
       </c>
       <c r="C5">
-        <v>13245.4717</v>
+        <v>68507.38295</v>
       </c>
       <c r="D5">
-        <v>11882.7217</v>
+        <v>60508.295</v>
       </c>
       <c r="E5">
-        <v>12143.4217</v>
+        <v>59010.835</v>
       </c>
       <c r="F5">
-        <v>12158.2717</v>
+        <v>74347.91525000001</v>
       </c>
       <c r="G5">
-        <v>11882.7217</v>
+        <v>80368.67425</v>
       </c>
       <c r="H5">
-        <v>11882.7217</v>
+        <v>64081.802675</v>
       </c>
       <c r="I5">
-        <v>86717.55189999999</v>
+        <v>475904.4867749999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1377,28 +1419,28 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4055</v>
+        <v>59089.575</v>
       </c>
       <c r="C6">
-        <v>4055</v>
+        <v>17499.585</v>
       </c>
       <c r="D6">
-        <v>4055</v>
+        <v>38853.51</v>
       </c>
       <c r="E6">
-        <v>4055</v>
+        <v>132561.91</v>
       </c>
       <c r="F6">
-        <v>4055</v>
+        <v>65368.39</v>
       </c>
       <c r="G6">
-        <v>4055</v>
+        <v>65352.3</v>
       </c>
       <c r="H6">
-        <v>4055</v>
+        <v>22377.57465</v>
       </c>
       <c r="I6">
-        <v>28385</v>
+        <v>401102.84465</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1406,28 +1448,28 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8455.459999999999</v>
+        <v>43920</v>
       </c>
       <c r="C7">
-        <v>12528.47</v>
+        <v>53500</v>
       </c>
       <c r="D7">
-        <v>11253.47</v>
+        <v>52010</v>
       </c>
       <c r="E7">
-        <v>5303.469999999999</v>
+        <v>46015</v>
       </c>
       <c r="F7">
-        <v>13053.47</v>
+        <v>43230</v>
       </c>
       <c r="G7">
-        <v>8403.470000000001</v>
+        <v>48790</v>
       </c>
       <c r="H7">
-        <v>8251.48</v>
+        <v>25800</v>
       </c>
       <c r="I7">
-        <v>67249.29000000001</v>
+        <v>313265</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1435,28 +1477,28 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>513.5</v>
+        <v>13354.64625</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>12929.95225</v>
       </c>
       <c r="D8">
-        <v>1018.7</v>
+        <v>10503.58125</v>
       </c>
       <c r="E8">
-        <v>526.6</v>
+        <v>11681.16375</v>
       </c>
       <c r="F8">
-        <v>1104.5</v>
+        <v>13257.69</v>
       </c>
       <c r="G8">
-        <v>788.1</v>
+        <v>1346.33625</v>
       </c>
       <c r="H8">
-        <v>620.15</v>
+        <v>233463.425625</v>
       </c>
       <c r="I8">
-        <v>4600.55</v>
+        <v>296536.795375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1464,28 +1506,28 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2862</v>
+        <v>50901.67</v>
       </c>
       <c r="C9">
-        <v>8750</v>
+        <v>41264.17</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>22854.1908</v>
       </c>
       <c r="E9">
-        <v>1835</v>
+        <v>27637.454</v>
       </c>
       <c r="F9">
-        <v>991</v>
+        <v>32491.6554</v>
       </c>
       <c r="G9">
-        <v>2119</v>
+        <v>39975.972</v>
       </c>
       <c r="H9">
-        <v>7160</v>
+        <v>41944.8238</v>
       </c>
       <c r="I9">
-        <v>23737</v>
+        <v>257069.936</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1493,28 +1535,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13354.64625</v>
+        <v>29580.6245</v>
       </c>
       <c r="C10">
-        <v>12929.95225</v>
+        <v>20454.02025</v>
       </c>
       <c r="D10">
-        <v>10503.58125</v>
+        <v>21280.4846</v>
       </c>
       <c r="E10">
-        <v>11681.16375</v>
+        <v>32891.581175</v>
       </c>
       <c r="F10">
-        <v>13257.69</v>
+        <v>34283.737225</v>
       </c>
       <c r="G10">
-        <v>1346.33625</v>
+        <v>34936.604125</v>
       </c>
       <c r="H10">
-        <v>233463.425625</v>
+        <v>11841.4891375</v>
       </c>
       <c r="I10">
-        <v>296536.795375</v>
+        <v>185268.5410125</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1522,28 +1564,28 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>29580.6245</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>20454.02025</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>21280.4846</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>32891.581175</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>34283.737225</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>34936.604125</v>
+        <v>166440</v>
       </c>
       <c r="H11">
-        <v>11841.4891375</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>185268.5410125</v>
+        <v>166440</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1551,28 +1593,28 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5808.2454</v>
+        <v>19205.680625</v>
       </c>
       <c r="C12">
-        <v>11581.960775</v>
+        <v>19201.59</v>
       </c>
       <c r="D12">
-        <v>15985.5767125</v>
+        <v>20711.24365</v>
       </c>
       <c r="E12">
-        <v>9339.4159875</v>
+        <v>19835.6</v>
       </c>
       <c r="F12">
-        <v>7434.779925</v>
+        <v>20443.52</v>
       </c>
       <c r="G12">
-        <v>11651.46755</v>
+        <v>21083.58632</v>
       </c>
       <c r="H12">
-        <v>9320.5959</v>
+        <v>19593.919925</v>
       </c>
       <c r="I12">
-        <v>71122.04225</v>
+        <v>140075.14052</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1580,28 +1622,28 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>100077.526717</v>
+        <v>15594.220675</v>
       </c>
       <c r="C13">
-        <v>88736.020609</v>
+        <v>23736.885325</v>
       </c>
       <c r="D13">
-        <v>128303.626935</v>
+        <v>12781.530325</v>
       </c>
       <c r="E13">
-        <v>111033.692146</v>
+        <v>12498.5599</v>
       </c>
       <c r="F13">
-        <v>119701.483263</v>
+        <v>17566.251775</v>
       </c>
       <c r="G13">
-        <v>141061.36657</v>
+        <v>11395.554825</v>
       </c>
       <c r="H13">
-        <v>122369.2041235</v>
+        <v>21992.64145</v>
       </c>
       <c r="I13">
-        <v>811282.9203635</v>
+        <v>115565.644275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1609,28 +1651,28 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11208.11957</v>
+        <v>12184.3</v>
       </c>
       <c r="C14">
-        <v>11812.5136275</v>
+        <v>12937.88</v>
       </c>
       <c r="D14">
-        <v>12664.52746</v>
+        <v>21063.33</v>
       </c>
       <c r="E14">
-        <v>11131.19277</v>
+        <v>4852.440000000001</v>
       </c>
       <c r="F14">
-        <v>13339.53781</v>
+        <v>13399.26</v>
       </c>
       <c r="G14">
-        <v>11343.8411375</v>
+        <v>14730.64</v>
       </c>
       <c r="H14">
-        <v>10199.2182625</v>
+        <v>23518.24</v>
       </c>
       <c r="I14">
-        <v>81698.95063750001</v>
+        <v>102686.09</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1638,28 +1680,28 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6065.889999999999</v>
+        <v>13522.2217</v>
       </c>
       <c r="C15">
-        <v>5958.12</v>
+        <v>13245.4717</v>
       </c>
       <c r="D15">
-        <v>7045.38</v>
+        <v>11882.7217</v>
       </c>
       <c r="E15">
-        <v>6037.45</v>
+        <v>12143.4217</v>
       </c>
       <c r="F15">
-        <v>5609.71</v>
+        <v>12158.2717</v>
       </c>
       <c r="G15">
-        <v>6427.65</v>
+        <v>11882.7217</v>
       </c>
       <c r="H15">
-        <v>6182.200000000001</v>
+        <v>11882.7217</v>
       </c>
       <c r="I15">
-        <v>43326.39999999999</v>
+        <v>86717.55189999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1667,28 +1709,28 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4185</v>
+        <v>11208.11957</v>
       </c>
       <c r="C16">
-        <v>2158.86</v>
+        <v>11812.5136275</v>
       </c>
       <c r="D16">
-        <v>4147.22</v>
+        <v>12664.52746</v>
       </c>
       <c r="E16">
-        <v>6580.08</v>
+        <v>11131.19277</v>
       </c>
       <c r="F16">
-        <v>4032.04</v>
+        <v>13339.53781</v>
       </c>
       <c r="G16">
-        <v>4132.65</v>
+        <v>11343.8411375</v>
       </c>
       <c r="H16">
-        <v>1407.86</v>
+        <v>10199.2182625</v>
       </c>
       <c r="I16">
-        <v>26643.71000000001</v>
+        <v>81698.95063750001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1696,28 +1738,28 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>357465.65</v>
+        <v>8357.52</v>
       </c>
       <c r="C17">
-        <v>327135.72</v>
+        <v>8323.860000000001</v>
       </c>
       <c r="D17">
-        <v>406002.192</v>
+        <v>13392.99</v>
       </c>
       <c r="E17">
-        <v>356542.3</v>
+        <v>17545.43</v>
       </c>
       <c r="F17">
-        <v>343148.76</v>
+        <v>10940.71</v>
       </c>
       <c r="G17">
-        <v>380903.8336</v>
+        <v>10287.15</v>
       </c>
       <c r="H17">
-        <v>350025.0498</v>
+        <v>8195.83</v>
       </c>
       <c r="I17">
-        <v>2521223.5054</v>
+        <v>77043.49000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1725,28 +1767,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>50901.67</v>
+        <v>5808.2454</v>
       </c>
       <c r="C18">
-        <v>41264.17</v>
+        <v>11581.960775</v>
       </c>
       <c r="D18">
-        <v>22854.1908</v>
+        <v>15985.5767125</v>
       </c>
       <c r="E18">
-        <v>27637.454</v>
+        <v>9339.4159875</v>
       </c>
       <c r="F18">
-        <v>32491.6554</v>
+        <v>7434.779925</v>
       </c>
       <c r="G18">
-        <v>39975.972</v>
+        <v>11651.46755</v>
       </c>
       <c r="H18">
-        <v>41944.8238</v>
+        <v>9320.5959</v>
       </c>
       <c r="I18">
-        <v>257069.936</v>
+        <v>71122.04225</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1754,28 +1796,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8455.459999999999</v>
       </c>
       <c r="C19">
-        <v>1350</v>
+        <v>12528.47</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>11253.47</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5303.469999999999</v>
       </c>
       <c r="F19">
-        <v>10908.24</v>
+        <v>13053.47</v>
       </c>
       <c r="G19">
-        <v>1321.76</v>
+        <v>8403.470000000001</v>
       </c>
       <c r="H19">
-        <v>6265.44</v>
+        <v>8251.48</v>
       </c>
       <c r="I19">
-        <v>19845.44</v>
+        <v>67249.29000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1783,28 +1825,28 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2625.24</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1931.07</v>
+        <v>25966.37</v>
       </c>
       <c r="D20">
-        <v>2511.27</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2785.65</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2398.52</v>
+        <v>6949.93</v>
       </c>
       <c r="G20">
-        <v>2506.02</v>
+        <v>32119.47</v>
       </c>
       <c r="H20">
-        <v>4555.39</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19313.16</v>
+        <v>65035.77</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1812,28 +1854,28 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>43920</v>
+        <v>9133.08</v>
       </c>
       <c r="C21">
-        <v>53500</v>
+        <v>9124.049999999999</v>
       </c>
       <c r="D21">
-        <v>52010</v>
+        <v>9136.25</v>
       </c>
       <c r="E21">
-        <v>46015</v>
+        <v>9268.66</v>
       </c>
       <c r="F21">
-        <v>43230</v>
+        <v>9312.5</v>
       </c>
       <c r="G21">
-        <v>48790</v>
+        <v>9325.380000000001</v>
       </c>
       <c r="H21">
-        <v>25800</v>
+        <v>8996.040000000001</v>
       </c>
       <c r="I21">
-        <v>313265</v>
+        <v>64295.96</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1841,28 +1883,28 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1500</v>
+        <v>6065.889999999999</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5958.12</v>
       </c>
       <c r="D22">
-        <v>600</v>
+        <v>7045.38</v>
       </c>
       <c r="E22">
-        <v>650.25</v>
+        <v>6037.45</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5609.71</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>6427.65</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6182.200000000001</v>
       </c>
       <c r="I22">
-        <v>2750.25</v>
+        <v>43326.39999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1870,28 +1912,28 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>15594.220675</v>
+        <v>6752.85</v>
       </c>
       <c r="C23">
-        <v>23736.885325</v>
+        <v>3622.88</v>
       </c>
       <c r="D23">
-        <v>12781.530325</v>
+        <v>690.5799999999999</v>
       </c>
       <c r="E23">
-        <v>12498.5599</v>
+        <v>732.09</v>
       </c>
       <c r="F23">
-        <v>17566.251775</v>
+        <v>6327</v>
       </c>
       <c r="G23">
-        <v>11395.554825</v>
+        <v>406.83</v>
       </c>
       <c r="H23">
-        <v>21992.64145</v>
+        <v>11516.85</v>
       </c>
       <c r="I23">
-        <v>115565.644275</v>
+        <v>30049.08</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1899,28 +1941,28 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>57.42</v>
+        <v>4030.51</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="D24">
-        <v>1590</v>
+        <v>6331.25</v>
       </c>
       <c r="E24">
-        <v>1314.22975</v>
+        <v>3720</v>
       </c>
       <c r="F24">
-        <v>776.8774999999999</v>
+        <v>3720</v>
       </c>
       <c r="G24">
-        <v>656.74475</v>
+        <v>4270</v>
       </c>
       <c r="H24">
-        <v>3642.1</v>
+        <v>3720</v>
       </c>
       <c r="I24">
-        <v>8037.371999999999</v>
+        <v>29511.76</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1928,28 +1970,28 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3517.07</v>
+        <v>3890.18</v>
       </c>
       <c r="C25">
-        <v>3155.74</v>
+        <v>3836.82</v>
       </c>
       <c r="D25">
-        <v>2816.7</v>
+        <v>3988.44</v>
       </c>
       <c r="E25">
-        <v>3042.54</v>
+        <v>5024.57</v>
       </c>
       <c r="F25">
-        <v>4817.65</v>
+        <v>5135.440000000001</v>
       </c>
       <c r="G25">
-        <v>3879.61</v>
+        <v>5187.32</v>
       </c>
       <c r="H25">
-        <v>2174.16</v>
+        <v>2328.58</v>
       </c>
       <c r="I25">
-        <v>23403.47</v>
+        <v>29391.35000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1957,28 +1999,28 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>69079.58165000001</v>
+        <v>4055</v>
       </c>
       <c r="C26">
-        <v>68507.38295</v>
+        <v>4055</v>
       </c>
       <c r="D26">
-        <v>60508.295</v>
+        <v>4055</v>
       </c>
       <c r="E26">
-        <v>59010.835</v>
+        <v>4055</v>
       </c>
       <c r="F26">
-        <v>74347.91525000001</v>
+        <v>4055</v>
       </c>
       <c r="G26">
-        <v>80368.67425</v>
+        <v>4055</v>
       </c>
       <c r="H26">
-        <v>64081.802675</v>
+        <v>4055</v>
       </c>
       <c r="I26">
-        <v>475904.4867749999</v>
+        <v>28385</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1986,28 +2028,28 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4185</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>2158.86</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4147.22</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>6580.08</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4032.04</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4132.65</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1407.86</v>
       </c>
       <c r="I27">
-        <v>28</v>
+        <v>26643.71000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2015,28 +2057,28 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>493.36</v>
+        <v>2862</v>
       </c>
       <c r="C28">
-        <v>882.09</v>
+        <v>8750</v>
       </c>
       <c r="D28">
-        <v>415.36</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>446.7</v>
+        <v>1835</v>
       </c>
       <c r="F28">
-        <v>2567.7</v>
+        <v>991</v>
       </c>
       <c r="G28">
-        <v>261.25</v>
+        <v>2119</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>7160</v>
       </c>
       <c r="I28">
-        <v>5066.459999999999</v>
+        <v>23737</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2044,28 +2086,28 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>841.99</v>
+        <v>3517.07</v>
       </c>
       <c r="C29">
-        <v>663.4</v>
+        <v>3155.74</v>
       </c>
       <c r="D29">
-        <v>232.2</v>
+        <v>2816.7</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3042.54</v>
       </c>
       <c r="F29">
-        <v>663.4</v>
+        <v>4817.65</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3879.61</v>
       </c>
       <c r="H29">
-        <v>236.2</v>
+        <v>2174.16</v>
       </c>
       <c r="I29">
-        <v>2637.19</v>
+        <v>23403.47</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2076,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>129.49</v>
+        <v>1350</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2085,16 +2127,16 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10908.24</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1321.76</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6265.44</v>
       </c>
       <c r="I30">
-        <v>129.49</v>
+        <v>19845.44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2102,28 +2144,28 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>59089.575</v>
+        <v>2625.24</v>
       </c>
       <c r="C31">
-        <v>17499.585</v>
+        <v>1931.07</v>
       </c>
       <c r="D31">
-        <v>38853.51</v>
+        <v>2511.27</v>
       </c>
       <c r="E31">
-        <v>132561.91</v>
+        <v>2785.65</v>
       </c>
       <c r="F31">
-        <v>65368.39</v>
+        <v>2398.52</v>
       </c>
       <c r="G31">
-        <v>65352.3</v>
+        <v>2506.02</v>
       </c>
       <c r="H31">
-        <v>22377.57465</v>
+        <v>4555.39</v>
       </c>
       <c r="I31">
-        <v>401102.84465</v>
+        <v>19313.16</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2131,28 +2173,28 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>156.68</v>
+        <v>2748.64</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1770.8</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3245.61</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1140.13</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1706.63</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1743.56</v>
       </c>
       <c r="I32">
-        <v>156.68</v>
+        <v>14295.37</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2160,28 +2202,28 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>57.42</v>
       </c>
       <c r="C33">
-        <v>7536</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1314.22975</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>776.8774999999999</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>656.74475</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3642.1</v>
       </c>
       <c r="I33">
-        <v>7536</v>
+        <v>8037.371999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2192,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>7536</v>
       </c>
       <c r="D34">
-        <v>902.2075</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2210,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>902.2075</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2218,28 +2260,28 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>525</v>
+        <v>1355.02</v>
       </c>
       <c r="C35">
-        <v>655</v>
+        <v>1249.37</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>476.28</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>966.8599999999999</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>930.5600000000001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>873.28755</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1028.44</v>
       </c>
       <c r="I35">
-        <v>1180</v>
+        <v>6879.81755</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2247,28 +2289,28 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1416.25</v>
       </c>
       <c r="C36">
-        <v>116.82</v>
+        <v>1416.25</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>1416.25</v>
       </c>
       <c r="F36">
-        <v>87.35000000000001</v>
+        <v>1416.25</v>
       </c>
       <c r="G36">
-        <v>104.56</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>14.16</v>
+        <v>1.99</v>
       </c>
       <c r="I36">
-        <v>367.89</v>
+        <v>5666.99</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2276,28 +2318,28 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2748.64</v>
+        <v>493.36</v>
       </c>
       <c r="C37">
-        <v>1770.8</v>
+        <v>882.09</v>
       </c>
       <c r="D37">
-        <v>3245.61</v>
+        <v>415.36</v>
       </c>
       <c r="E37">
-        <v>1140.13</v>
+        <v>446.7</v>
       </c>
       <c r="F37">
-        <v>1940</v>
+        <v>2567.7</v>
       </c>
       <c r="G37">
-        <v>1706.63</v>
+        <v>261.25</v>
       </c>
       <c r="H37">
-        <v>1743.56</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>14295.37</v>
+        <v>5066.459999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2305,28 +2347,28 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4030.51</v>
+        <v>513.5</v>
       </c>
       <c r="C38">
-        <v>3720</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>6331.25</v>
+        <v>1018.7</v>
       </c>
       <c r="E38">
-        <v>3720</v>
+        <v>526.6</v>
       </c>
       <c r="F38">
-        <v>3720</v>
+        <v>1104.5</v>
       </c>
       <c r="G38">
-        <v>4270</v>
+        <v>788.1</v>
       </c>
       <c r="H38">
-        <v>3720</v>
+        <v>620.15</v>
       </c>
       <c r="I38">
-        <v>29511.76</v>
+        <v>4600.55</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2334,28 +2376,28 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>19205.680625</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>19201.59</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>20711.24365</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>19835.6</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>20443.52</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>21083.58632</v>
+        <v>1416.25</v>
       </c>
       <c r="H39">
-        <v>19593.919925</v>
+        <v>1426.25</v>
       </c>
       <c r="I39">
-        <v>140075.14052</v>
+        <v>2842.5</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2363,28 +2405,28 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>6752.85</v>
+        <v>1500</v>
       </c>
       <c r="C40">
-        <v>3622.88</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>690.5799999999999</v>
+        <v>600</v>
       </c>
       <c r="E40">
-        <v>732.09</v>
+        <v>650.25</v>
       </c>
       <c r="F40">
-        <v>6327</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>406.83</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>11516.85</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>30049.08</v>
+        <v>2750.25</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2392,28 +2434,28 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>8357.52</v>
+        <v>841.99</v>
       </c>
       <c r="C41">
-        <v>8323.860000000001</v>
+        <v>663.4</v>
       </c>
       <c r="D41">
-        <v>13392.99</v>
+        <v>232.2</v>
       </c>
       <c r="E41">
-        <v>17545.43</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>10940.71</v>
+        <v>663.4</v>
       </c>
       <c r="G41">
-        <v>10287.15</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>8195.83</v>
+        <v>236.2</v>
       </c>
       <c r="I41">
-        <v>77043.49000000001</v>
+        <v>2637.19</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2450,28 +2492,28 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>9133.08</v>
+        <v>525</v>
       </c>
       <c r="C43">
-        <v>9124.049999999999</v>
+        <v>655</v>
       </c>
       <c r="D43">
-        <v>9136.25</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>9268.66</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>9312.5</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>9325.380000000001</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>8996.040000000001</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>64295.96</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2479,28 +2521,28 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>12184.3</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>12937.88</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>21063.33</v>
+        <v>902.2075</v>
       </c>
       <c r="E44">
-        <v>4852.440000000001</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>13399.26</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>14730.64</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>23518.24</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>102686.09</v>
+        <v>902.2075</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2508,28 +2550,28 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>3890.18</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>3836.82</v>
+        <v>116.82</v>
       </c>
       <c r="D45">
-        <v>3988.44</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>5024.57</v>
+        <v>45</v>
       </c>
       <c r="F45">
-        <v>5135.440000000001</v>
+        <v>87.35000000000001</v>
       </c>
       <c r="G45">
-        <v>5187.32</v>
+        <v>104.56</v>
       </c>
       <c r="H45">
-        <v>2328.58</v>
+        <v>14.16</v>
       </c>
       <c r="I45">
-        <v>29391.35000000001</v>
+        <v>367.89</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2537,28 +2579,28 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>94319.976375</v>
+        <v>156.68</v>
       </c>
       <c r="C46">
-        <v>119864.894</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>115525.1205</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>65467.72415</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>86175.25445000001</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>110170.6386</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>100010.209875</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>691533.8179500001</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2566,28 +2608,28 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1355.02</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1249.37</v>
+        <v>129.49</v>
       </c>
       <c r="D47">
-        <v>476.28</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>966.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>930.5600000000001</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>873.28755</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1028.44</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6879.81755</v>
+        <v>129.49</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2595,28 +2637,28 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1416.25</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1416.25</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1416.25</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1416.25</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>5666.99</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2738,7 @@
         <v>668.25</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>206</v>
@@ -2740,7 +2782,7 @@
         <v>1311.85625</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>206</v>
@@ -2784,7 +2826,7 @@
         <v>72.00393750000001</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>206</v>
@@ -2828,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>206</v>
@@ -2872,7 +2914,7 @@
         <v>121.5</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>206</v>
@@ -2916,7 +2958,7 @@
         <v>13.091625</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>206</v>
@@ -2960,7 +3002,7 @@
         <v>396.207525</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>206</v>
@@ -3004,7 +3046,7 @@
         <v>486</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>206</v>
@@ -3048,7 +3090,7 @@
         <v>10.8405</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>206</v>
@@ -3092,7 +3134,7 @@
         <v>364.5</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>206</v>
@@ -3136,7 +3178,7 @@
         <v>128.4435</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>206</v>
@@ -3180,7 +3222,7 @@
         <v>8.541</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>206</v>
@@ -3224,7 +3266,7 @@
         <v>972</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
         <v>206</v>
@@ -3268,7 +3310,7 @@
         <v>94.1481</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>206</v>
@@ -3312,7 +3354,7 @@
         <v>50.9175</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>206</v>
@@ -3356,7 +3398,7 @@
         <v>26.8275</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>206</v>
@@ -3400,7 +3442,7 @@
         <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>206</v>
@@ -3444,7 +3486,7 @@
         <v>1396.125</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>206</v>
@@ -3488,7 +3530,7 @@
         <v>-139.6125</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>206</v>
@@ -3532,7 +3574,7 @@
         <v>213.525</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>206</v>
@@ -3576,7 +3618,7 @@
         <v>-21.3525</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>206</v>
@@ -3620,7 +3662,7 @@
         <v>2128.0625</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>206</v>
@@ -3664,7 +3706,7 @@
         <v>-212.80625</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
         <v>206</v>
@@ -3708,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>206</v>
@@ -3752,7 +3794,7 @@
         <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
         <v>206</v>
@@ -3796,7 +3838,7 @@
         <v>729</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
         <v>206</v>
@@ -3840,7 +3882,7 @@
         <v>60.49875</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
         <v>206</v>
@@ -3884,7 +3926,7 @@
         <v>6.53715</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
         <v>206</v>
@@ -3928,7 +3970,7 @@
         <v>98.38575</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
         <v>206</v>
@@ -3972,7 +4014,7 @@
         <v>38.00745</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>206</v>
@@ -4016,7 +4058,7 @@
         <v>23.26875</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
         <v>206</v>
@@ -4060,7 +4102,7 @@
         <v>50.589</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>206</v>
@@ -4104,7 +4146,7 @@
         <v>1215</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>206</v>
@@ -4148,7 +4190,7 @@
         <v>220.7301</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
         <v>206</v>
@@ -4192,7 +4234,7 @@
         <v>486</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
         <v>206</v>
@@ -4236,7 +4278,7 @@
         <v>364.5</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>206</v>
@@ -4280,7 +4322,7 @@
         <v>46.4499</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
         <v>206</v>
@@ -4324,7 +4366,7 @@
         <v>28.74375</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>206</v>
@@ -4368,7 +4410,7 @@
         <v>121.5</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
         <v>206</v>
@@ -4412,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
         <v>206</v>
@@ -4456,7 +4498,7 @@
         <v>182.25</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
         <v>206</v>
@@ -4500,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
         <v>206</v>
@@ -4544,7 +4586,7 @@
         <v>364.5</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
         <v>206</v>
@@ -4588,7 +4630,7 @@
         <v>1286.625</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
         <v>206</v>
@@ -4632,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
         <v>206</v>
@@ -4676,7 +4718,7 @@
         <v>425.25</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" t="s">
         <v>206</v>
@@ -4720,7 +4762,7 @@
         <v>29.29125</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
         <v>206</v>
@@ -4764,7 +4806,7 @@
         <v>100.1925</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
         <v>206</v>
@@ -4808,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
         <v>206</v>
@@ -4852,7 +4894,7 @@
         <v>28.74375</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
         <v>206</v>
@@ -4896,7 +4938,7 @@
         <v>46.4499</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52" t="s">
         <v>206</v>
@@ -4940,7 +4982,7 @@
         <v>412.14375</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
         <v>206</v>
@@ -4984,7 +5026,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
         <v>206</v>
@@ -5028,7 +5070,7 @@
         <v>3.77775</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
         <v>206</v>
@@ -5072,7 +5114,7 @@
         <v>47.03025</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
         <v>206</v>
@@ -5116,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
         <v>206</v>
@@ -5160,7 +5202,7 @@
         <v>364.5</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
         <v>206</v>
@@ -5204,7 +5246,7 @@
         <v>793.875</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
         <v>206</v>
@@ -5248,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
         <v>206</v>
@@ -5292,7 +5334,7 @@
         <v>364.5</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
         <v>206</v>
@@ -5336,7 +5378,7 @@
         <v>1333.1625</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I62" t="s">
         <v>206</v>
@@ -5380,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
         <v>206</v>
@@ -5424,7 +5466,7 @@
         <v>486</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I64" t="s">
         <v>206</v>
@@ -5468,7 +5510,7 @@
         <v>1011.1887</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
         <v>206</v>
@@ -5512,7 +5554,7 @@
         <v>140.2695</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
         <v>206</v>
@@ -5556,7 +5598,7 @@
         <v>76.10250000000001</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
         <v>206</v>
@@ -5600,7 +5642,7 @@
         <v>8.705249999999999</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
         <v>206</v>
@@ -5644,7 +5686,7 @@
         <v>44.18325</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
         <v>206</v>
@@ -5688,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
         <v>206</v>
@@ -5732,7 +5774,7 @@
         <v>486</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" t="s">
         <v>206</v>
@@ -5776,7 +5818,7 @@
         <v>129.21</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
         <v>206</v>
@@ -5820,7 +5862,7 @@
         <v>726.9048</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I73" t="s">
         <v>206</v>
@@ -5864,7 +5906,7 @@
         <v>308.6805</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I74" t="s">
         <v>206</v>
@@ -5908,7 +5950,7 @@
         <v>38.325</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
         <v>206</v>
@@ -5952,7 +5994,7 @@
         <v>21.9</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I76" t="s">
         <v>206</v>
@@ -5996,7 +6038,7 @@
         <v>28.74375</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
         <v>206</v>
@@ -6040,7 +6082,7 @@
         <v>46.4499</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
         <v>206</v>
@@ -6084,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
         <v>206</v>
@@ -6128,7 +6170,7 @@
         <v>326.53125</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
         <v>206</v>
@@ -6172,7 +6214,7 @@
         <v>326.53125</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
         <v>206</v>
@@ -6216,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
         <v>206</v>
@@ -6260,7 +6302,7 @@
         <v>303.75</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I83" t="s">
         <v>206</v>
@@ -6304,7 +6346,7 @@
         <v>546.75</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
         <v>206</v>
@@ -6348,7 +6390,7 @@
         <v>50.373125</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
         <v>206</v>
@@ -6392,7 +6434,7 @@
         <v>104.8623</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86" t="s">
         <v>206</v>
@@ -6436,7 +6478,7 @@
         <v>121.5</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
         <v>206</v>
@@ -6480,7 +6522,7 @@
         <v>729</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I88" t="s">
         <v>206</v>
@@ -6524,7 +6566,7 @@
         <v>906.7162499999999</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
         <v>206</v>
@@ -6568,7 +6610,7 @@
         <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I90" t="s">
         <v>206</v>
@@ -6612,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
         <v>206</v>
@@ -6656,7 +6698,7 @@
         <v>607.5</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
         <v>206</v>
@@ -6700,7 +6742,7 @@
         <v>1174.3875</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I93" t="s">
         <v>206</v>
@@ -6744,7 +6786,7 @@
         <v>11.44275</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
         <v>206</v>
@@ -6788,7 +6830,7 @@
         <v>68.65649999999999</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
         <v>206</v>
@@ -6832,7 +6874,7 @@
         <v>7.61025</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I96" t="s">
         <v>206</v>
@@ -6876,7 +6918,7 @@
         <v>100.46625</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
         <v>206</v>
@@ -6920,7 +6962,7 @@
         <v>1072.76055</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I98" t="s">
         <v>206</v>
@@ -6964,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
         <v>206</v>
@@ -7008,7 +7050,7 @@
         <v>1396.125</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I100" t="s">
         <v>206</v>
@@ -7052,7 +7094,7 @@
         <v>-139.6125</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I101" t="s">
         <v>206</v>
@@ -7096,7 +7138,7 @@
         <v>213.525</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I102" t="s">
         <v>206</v>
@@ -7140,7 +7182,7 @@
         <v>-21.3525</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I103" t="s">
         <v>206</v>
@@ -7184,7 +7226,7 @@
         <v>2128.0625</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I104" t="s">
         <v>206</v>
@@ -7228,7 +7270,7 @@
         <v>-212.80625</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
         <v>206</v>
@@ -7272,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
         <v>206</v>
@@ -7316,7 +7358,7 @@
         <v>562.5</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
         <v>206</v>
@@ -7360,7 +7402,7 @@
         <v>787.5</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
         <v>206</v>
@@ -7404,7 +7446,7 @@
         <v>195.56625</v>
       </c>
       <c r="H109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I109" t="s">
         <v>206</v>
@@ -7448,7 +7490,7 @@
         <v>518.546875</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I110" t="s">
         <v>206</v>
@@ -7492,7 +7534,7 @@
         <v>486</v>
       </c>
       <c r="H111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
         <v>206</v>
@@ -7536,7 +7578,7 @@
         <v>243</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I112" t="s">
         <v>206</v>
@@ -7580,7 +7622,7 @@
         <v>787.5</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I113" t="s">
         <v>206</v>
@@ -7624,7 +7666,7 @@
         <v>195.56625</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
         <v>206</v>
@@ -7668,7 +7710,7 @@
         <v>518.546875</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
         <v>206</v>
@@ -7712,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
         <v>206</v>
@@ -7756,7 +7798,7 @@
         <v>1518.75</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
         <v>206</v>
@@ -7800,7 +7842,7 @@
         <v>1591.844625</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
         <v>206</v>
@@ -7844,7 +7886,7 @@
         <v>112.5</v>
       </c>
       <c r="H119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I119" t="s">
         <v>206</v>
@@ -7888,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
         <v>206</v>
@@ -7932,7 +7974,7 @@
         <v>225</v>
       </c>
       <c r="H121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
         <v>206</v>
@@ -7976,7 +8018,7 @@
         <v>506.25</v>
       </c>
       <c r="H122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I122" t="s">
         <v>206</v>
@@ -8020,7 +8062,7 @@
         <v>382.9435</v>
       </c>
       <c r="H123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
         <v>206</v>
@@ -8064,7 +8106,7 @@
         <v>168.75</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I124" t="s">
         <v>206</v>
@@ -8108,7 +8150,7 @@
         <v>450</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I125" t="s">
         <v>206</v>
@@ -8152,7 +8194,7 @@
         <v>377.125</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I126" t="s">
         <v>206</v>
@@ -8196,7 +8238,7 @@
         <v>1240.0732</v>
       </c>
       <c r="H127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I127" t="s">
         <v>206</v>
@@ -8240,7 +8282,7 @@
         <v>33.8335</v>
       </c>
       <c r="H128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I128" t="s">
         <v>206</v>
@@ -8284,7 +8326,7 @@
         <v>225</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I129" t="s">
         <v>206</v>
@@ -8328,7 +8370,7 @@
         <v>1054.2691</v>
       </c>
       <c r="H130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I130" t="s">
         <v>206</v>
@@ -8372,7 +8414,7 @@
         <v>393.75</v>
       </c>
       <c r="H131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I131" t="s">
         <v>206</v>
@@ -8416,7 +8458,7 @@
         <v>281.25</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I132" t="s">
         <v>206</v>
@@ -8460,7 +8502,7 @@
         <v>337.5</v>
       </c>
       <c r="H133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I133" t="s">
         <v>206</v>
@@ -8504,7 +8546,7 @@
         <v>225</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I134" t="s">
         <v>206</v>
@@ -8548,7 +8590,7 @@
         <v>450</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I135" t="s">
         <v>206</v>
@@ -8592,7 +8634,7 @@
         <v>-337.5</v>
       </c>
       <c r="H136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I136" t="s">
         <v>206</v>
@@ -8636,7 +8678,7 @@
         <v>477.87125</v>
       </c>
       <c r="H137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I137" t="s">
         <v>206</v>
@@ -8680,7 +8722,7 @@
         <v>37.7125</v>
       </c>
       <c r="H138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I138" t="s">
         <v>206</v>
@@ -8724,7 +8766,7 @@
         <v>21.55</v>
       </c>
       <c r="H139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I139" t="s">
         <v>206</v>
@@ -8768,7 +8810,7 @@
         <v>900</v>
       </c>
       <c r="H140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I140" t="s">
         <v>206</v>
@@ -8812,7 +8854,7 @@
         <v>310.589375</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
         <v>206</v>
@@ -8856,7 +8898,7 @@
         <v>11.798625</v>
       </c>
       <c r="H142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I142" t="s">
         <v>206</v>
@@ -8900,7 +8942,7 @@
         <v>675</v>
       </c>
       <c r="H143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I143" t="s">
         <v>206</v>
@@ -8944,7 +8986,7 @@
         <v>89.00149999999999</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I144" t="s">
         <v>206</v>
@@ -8988,7 +9030,7 @@
         <v>103.6555</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I145" t="s">
         <v>206</v>
@@ -9032,7 +9074,7 @@
         <v>122.835</v>
       </c>
       <c r="H146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I146" t="s">
         <v>206</v>
@@ -9076,7 +9118,7 @@
         <v>156.99175</v>
       </c>
       <c r="H147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I147" t="s">
         <v>206</v>
@@ -9120,7 +9162,7 @@
         <v>182.733225</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I148" t="s">
         <v>206</v>
@@ -9164,7 +9206,7 @@
         <v>37.7125</v>
       </c>
       <c r="H149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I149" t="s">
         <v>206</v>
@@ -9208,7 +9250,7 @@
         <v>21.55</v>
       </c>
       <c r="H150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
         <v>206</v>
@@ -9252,7 +9294,7 @@
         <v>35.115725</v>
       </c>
       <c r="H151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I151" t="s">
         <v>206</v>
@@ -9296,7 +9338,7 @@
         <v>30.27775</v>
       </c>
       <c r="H152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I152" t="s">
         <v>206</v>
@@ -9340,7 +9382,7 @@
         <v>562.5</v>
       </c>
       <c r="H153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I153" t="s">
         <v>206</v>
@@ -9384,7 +9426,7 @@
         <v>675</v>
       </c>
       <c r="H154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I154" t="s">
         <v>206</v>
@@ -9428,7 +9470,7 @@
         <v>337.5</v>
       </c>
       <c r="H155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I155" t="s">
         <v>206</v>
@@ -9472,7 +9514,7 @@
         <v>181.3648</v>
       </c>
       <c r="H156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I156" t="s">
         <v>206</v>
@@ -9516,7 +9558,7 @@
         <v>675</v>
       </c>
       <c r="H157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I157" t="s">
         <v>206</v>
@@ -9560,7 +9602,7 @@
         <v>1293</v>
       </c>
       <c r="H158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I158" t="s">
         <v>206</v>
@@ -9604,7 +9646,7 @@
         <v>337.5</v>
       </c>
       <c r="H159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I159" t="s">
         <v>206</v>
@@ -9648,7 +9690,7 @@
         <v>337.5</v>
       </c>
       <c r="H160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I160" t="s">
         <v>206</v>
@@ -9692,7 +9734,7 @@
         <v>267.62945</v>
       </c>
       <c r="H161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I161" t="s">
         <v>206</v>
@@ -9736,7 +9778,7 @@
         <v>450</v>
       </c>
       <c r="H162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I162" t="s">
         <v>206</v>
@@ -9780,7 +9822,7 @@
         <v>164.480375</v>
       </c>
       <c r="H163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
         <v>206</v>
@@ -9824,7 +9866,7 @@
         <v>149.007475</v>
       </c>
       <c r="H164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I164" t="s">
         <v>206</v>
@@ -9868,7 +9910,7 @@
         <v>225</v>
       </c>
       <c r="H165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I165" t="s">
         <v>206</v>
@@ -9912,7 +9954,7 @@
         <v>337.5</v>
       </c>
       <c r="H166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I166" t="s">
         <v>206</v>
@@ -9956,7 +9998,7 @@
         <v>225</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I167" t="s">
         <v>206</v>
@@ -10000,7 +10042,7 @@
         <v>242.4375</v>
       </c>
       <c r="H168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I168" t="s">
         <v>206</v>
@@ -10044,7 +10086,7 @@
         <v>1125</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I169" t="s">
         <v>206</v>
@@ -10088,7 +10130,7 @@
         <v>562.5</v>
       </c>
       <c r="H170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I170" t="s">
         <v>206</v>
@@ -10132,7 +10174,7 @@
         <v>148.0054</v>
       </c>
       <c r="H171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I171" t="s">
         <v>206</v>
@@ -10176,7 +10218,7 @@
         <v>337.5</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I172" t="s">
         <v>206</v>
@@ -10220,7 +10262,7 @@
         <v>168.75</v>
       </c>
       <c r="H173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I173" t="s">
         <v>206</v>
@@ -10264,7 +10306,7 @@
         <v>450</v>
       </c>
       <c r="H174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I174" t="s">
         <v>206</v>
@@ -10308,7 +10350,7 @@
         <v>157.5</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I175" t="s">
         <v>206</v>
@@ -10352,7 +10394,7 @@
         <v>281.25</v>
       </c>
       <c r="H176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I176" t="s">
         <v>206</v>
@@ -10396,7 +10438,7 @@
         <v>1181.25</v>
       </c>
       <c r="H177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I177" t="s">
         <v>206</v>
@@ -10440,7 +10482,7 @@
         <v>92.63267500000001</v>
       </c>
       <c r="H178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I178" t="s">
         <v>206</v>
@@ -10484,7 +10526,7 @@
         <v>337.5</v>
       </c>
       <c r="H179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I179" t="s">
         <v>206</v>
@@ -10528,7 +10570,7 @@
         <v>-337.5</v>
       </c>
       <c r="H180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I180" t="s">
         <v>206</v>
@@ -10572,7 +10614,7 @@
         <v>225</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I181" t="s">
         <v>206</v>
@@ -10616,7 +10658,7 @@
         <v>618.75</v>
       </c>
       <c r="H182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I182" t="s">
         <v>206</v>
@@ -10660,7 +10702,7 @@
         <v>67.1067</v>
       </c>
       <c r="H183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I183" t="s">
         <v>206</v>
@@ -10704,7 +10746,7 @@
         <v>281.25</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
         <v>206</v>
@@ -10748,7 +10790,7 @@
         <v>164.480375</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I185" t="s">
         <v>206</v>
@@ -10792,7 +10834,7 @@
         <v>22.573625</v>
       </c>
       <c r="H186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I186" t="s">
         <v>206</v>
@@ -10836,7 +10878,7 @@
         <v>1631.25</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I187" t="s">
         <v>206</v>
@@ -10880,7 +10922,7 @@
         <v>1948.12</v>
       </c>
       <c r="H188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I188" t="s">
         <v>206</v>
@@ -10924,7 +10966,7 @@
         <v>393.75</v>
       </c>
       <c r="H189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I189" t="s">
         <v>206</v>
@@ -10968,7 +11010,7 @@
         <v>562.5</v>
       </c>
       <c r="H190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I190" t="s">
         <v>206</v>
@@ -11012,7 +11054,7 @@
         <v>267.62945</v>
       </c>
       <c r="H191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I191" t="s">
         <v>206</v>
@@ -11056,7 +11098,7 @@
         <v>1181.25</v>
       </c>
       <c r="H192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I192" t="s">
         <v>206</v>
@@ -11100,7 +11142,7 @@
         <v>790.885</v>
       </c>
       <c r="H193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I193" t="s">
         <v>206</v>
@@ -11144,7 +11186,7 @@
         <v>38.520625</v>
       </c>
       <c r="H194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I194" t="s">
         <v>206</v>
@@ -11188,7 +11230,7 @@
         <v>673.0496000000001</v>
       </c>
       <c r="H195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I195" t="s">
         <v>206</v>
@@ -11232,7 +11274,7 @@
         <v>66.05074999999999</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I196" t="s">
         <v>206</v>
@@ -11276,7 +11318,7 @@
         <v>42.399625</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I197" t="s">
         <v>206</v>
@@ -11320,7 +11362,7 @@
         <v>58.669875</v>
       </c>
       <c r="H198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I198" t="s">
         <v>206</v>
@@ -11364,7 +11406,7 @@
         <v>337.5</v>
       </c>
       <c r="H199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I199" t="s">
         <v>206</v>
@@ -11408,7 +11450,7 @@
         <v>2542.9</v>
       </c>
       <c r="H200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I200" t="s">
         <v>206</v>
@@ -11452,7 +11494,7 @@
         <v>225</v>
       </c>
       <c r="H201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I201" t="s">
         <v>206</v>
@@ -11496,7 +11538,7 @@
         <v>329.122375</v>
       </c>
       <c r="H202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I202" t="s">
         <v>206</v>
@@ -11540,7 +11582,7 @@
         <v>123.24445</v>
       </c>
       <c r="H203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I203" t="s">
         <v>206</v>
@@ -11584,7 +11626,7 @@
         <v>168.75</v>
       </c>
       <c r="H204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I204" t="s">
         <v>206</v>
@@ -11628,7 +11670,7 @@
         <v>450</v>
       </c>
       <c r="H205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I205" t="s">
         <v>206</v>
@@ -11672,7 +11714,7 @@
         <v>3.77125</v>
       </c>
       <c r="H206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I206" t="s">
         <v>206</v>
@@ -11716,7 +11758,7 @@
         <v>8.51225</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I207" t="s">
         <v>206</v>
@@ -11760,7 +11802,7 @@
         <v>135.1185</v>
       </c>
       <c r="H208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I208" t="s">
         <v>206</v>
@@ -11804,7 +11846,7 @@
         <v>450</v>
       </c>
       <c r="H209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I209" t="s">
         <v>206</v>
@@ -11848,7 +11890,7 @@
         <v>13.436425</v>
       </c>
       <c r="H210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I210" t="s">
         <v>206</v>
@@ -11892,7 +11934,7 @@
         <v>843.75</v>
       </c>
       <c r="H211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I211" t="s">
         <v>206</v>
@@ -11936,7 +11978,7 @@
         <v>1239.125</v>
       </c>
       <c r="H212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I212" t="s">
         <v>206</v>
@@ -11980,7 +12022,7 @@
         <v>618.75</v>
       </c>
       <c r="H213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I213" t="s">
         <v>206</v>
@@ -12024,7 +12066,7 @@
         <v>112.5</v>
       </c>
       <c r="H214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I214" t="s">
         <v>206</v>
@@ -12068,7 +12110,7 @@
         <v>112.5</v>
       </c>
       <c r="H215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I215" t="s">
         <v>206</v>
@@ -12112,7 +12154,7 @@
         <v>112.5</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I216" t="s">
         <v>206</v>
@@ -12156,7 +12198,7 @@
         <v>112.5</v>
       </c>
       <c r="H217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I217" t="s">
         <v>206</v>
@@ -12200,7 +12242,7 @@
         <v>506.25</v>
       </c>
       <c r="H218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I218" t="s">
         <v>206</v>
@@ -12244,7 +12286,7 @@
         <v>1233.97455</v>
       </c>
       <c r="H219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I219" t="s">
         <v>206</v>
@@ -12288,7 +12330,7 @@
         <v>506.25</v>
       </c>
       <c r="H220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I220" t="s">
         <v>206</v>
@@ -12332,7 +12374,7 @@
         <v>196.875</v>
       </c>
       <c r="H221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I221" t="s">
         <v>206</v>
@@ -12376,7 +12418,7 @@
         <v>40.675625</v>
       </c>
       <c r="H222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I222" t="s">
         <v>206</v>
@@ -12420,7 +12462,7 @@
         <v>450</v>
       </c>
       <c r="H223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I223" t="s">
         <v>206</v>
@@ -12464,7 +12506,7 @@
         <v>93.6994</v>
       </c>
       <c r="H224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I224" t="s">
         <v>206</v>
@@ -12508,7 +12550,7 @@
         <v>96.45780000000001</v>
       </c>
       <c r="H225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I225" t="s">
         <v>206</v>
@@ -12552,7 +12594,7 @@
         <v>281.25</v>
       </c>
       <c r="H226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I226" t="s">
         <v>206</v>
@@ -12596,7 +12638,7 @@
         <v>1012.5</v>
       </c>
       <c r="H227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I227" t="s">
         <v>206</v>
@@ -12640,7 +12682,7 @@
         <v>1805.52365</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I228" t="s">
         <v>206</v>
@@ -12684,7 +12726,7 @@
         <v>112.5</v>
       </c>
       <c r="H229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I229" t="s">
         <v>206</v>
@@ -12728,7 +12770,7 @@
         <v>112.5</v>
       </c>
       <c r="H230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I230" t="s">
         <v>206</v>
@@ -12772,7 +12814,7 @@
         <v>112.5</v>
       </c>
       <c r="H231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I231" t="s">
         <v>206</v>
@@ -12816,7 +12858,7 @@
         <v>105.05625</v>
       </c>
       <c r="H232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I232" t="s">
         <v>206</v>
@@ -12860,7 +12902,7 @@
         <v>56.25</v>
       </c>
       <c r="H233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I233" t="s">
         <v>206</v>
@@ -12904,7 +12946,7 @@
         <v>506.25</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I234" t="s">
         <v>206</v>
@@ -12948,7 +12990,7 @@
         <v>100.46625</v>
       </c>
       <c r="H235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I235" t="s">
         <v>206</v>
@@ -12992,7 +13034,7 @@
         <v>450</v>
       </c>
       <c r="H236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I236" t="s">
         <v>206</v>
@@ -13036,7 +13078,7 @@
         <v>98.49525</v>
       </c>
       <c r="H237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I237" t="s">
         <v>206</v>
@@ -13080,7 +13122,7 @@
         <v>562.5</v>
       </c>
       <c r="H238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I238" t="s">
         <v>206</v>
@@ -13124,7 +13166,7 @@
         <v>547.5</v>
       </c>
       <c r="H239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I239" t="s">
         <v>206</v>
@@ -13168,7 +13210,7 @@
         <v>157.5</v>
       </c>
       <c r="H240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I240" t="s">
         <v>206</v>
@@ -13212,7 +13254,7 @@
         <v>562.5</v>
       </c>
       <c r="H241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I241" t="s">
         <v>206</v>
@@ -13256,7 +13298,7 @@
         <v>175.3095</v>
       </c>
       <c r="H242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I242" t="s">
         <v>206</v>
@@ -13300,7 +13342,7 @@
         <v>42.84735</v>
       </c>
       <c r="H243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I243" t="s">
         <v>206</v>
@@ -13344,7 +13386,7 @@
         <v>168.75</v>
       </c>
       <c r="H244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I244" t="s">
         <v>206</v>
@@ -13388,7 +13430,7 @@
         <v>168.75</v>
       </c>
       <c r="H245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I245" t="s">
         <v>206</v>
@@ -13432,7 +13474,7 @@
         <v>281.25</v>
       </c>
       <c r="H246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I246" t="s">
         <v>206</v>
@@ -13476,7 +13518,7 @@
         <v>125.5089</v>
       </c>
       <c r="H247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I247" t="s">
         <v>206</v>
@@ -13520,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I248" t="s">
         <v>206</v>
@@ -13564,7 +13606,7 @@
         <v>731.25</v>
       </c>
       <c r="H249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I249" t="s">
         <v>206</v>
@@ -13608,7 +13650,7 @@
         <v>143.19315</v>
       </c>
       <c r="H250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I250" t="s">
         <v>206</v>
@@ -13652,7 +13694,7 @@
         <v>82.6725</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I251" t="s">
         <v>206</v>
@@ -13696,7 +13738,7 @@
         <v>450</v>
       </c>
       <c r="H252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I252" t="s">
         <v>206</v>
@@ -13740,7 +13782,7 @@
         <v>-225</v>
       </c>
       <c r="H253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I253" t="s">
         <v>206</v>
@@ -13784,7 +13826,7 @@
         <v>450</v>
       </c>
       <c r="H254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I254" t="s">
         <v>206</v>
@@ -13828,7 +13870,7 @@
         <v>506.25</v>
       </c>
       <c r="H255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I255" t="s">
         <v>206</v>
@@ -13872,7 +13914,7 @@
         <v>562.5</v>
       </c>
       <c r="H256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I256" t="s">
         <v>206</v>
@@ -13916,7 +13958,7 @@
         <v>675</v>
       </c>
       <c r="H257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I257" t="s">
         <v>206</v>
@@ -13960,7 +14002,7 @@
         <v>225</v>
       </c>
       <c r="H258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I258" t="s">
         <v>206</v>
@@ -14004,7 +14046,7 @@
         <v>740.0667</v>
       </c>
       <c r="H259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I259" t="s">
         <v>206</v>
@@ -14048,7 +14090,7 @@
         <v>755.82375</v>
       </c>
       <c r="H260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I260" t="s">
         <v>206</v>
@@ -14092,7 +14134,7 @@
         <v>207.9186</v>
       </c>
       <c r="H261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I261" t="s">
         <v>206</v>
@@ -14136,7 +14178,7 @@
         <v>164.25</v>
       </c>
       <c r="H262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I262" t="s">
         <v>206</v>
@@ -14180,7 +14222,7 @@
         <v>393.75</v>
       </c>
       <c r="H263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I263" t="s">
         <v>206</v>
@@ -14224,7 +14266,7 @@
         <v>900</v>
       </c>
       <c r="H264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I264" t="s">
         <v>206</v>
@@ -14268,7 +14310,7 @@
         <v>82.62869999999999</v>
       </c>
       <c r="H265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I265" t="s">
         <v>206</v>
@@ -14312,7 +14354,7 @@
         <v>72.24809999999999</v>
       </c>
       <c r="H266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I266" t="s">
         <v>206</v>
@@ -14356,7 +14398,7 @@
         <v>295.1025</v>
       </c>
       <c r="H267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I267" t="s">
         <v>206</v>
@@ -14400,7 +14442,7 @@
         <v>38.763</v>
       </c>
       <c r="H268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I268" t="s">
         <v>206</v>
@@ -14444,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I269" t="s">
         <v>206</v>
@@ -14488,7 +14530,7 @@
         <v>225</v>
       </c>
       <c r="H270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I270" t="s">
         <v>206</v>
@@ -14532,7 +14574,7 @@
         <v>71.175</v>
       </c>
       <c r="H271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I271" t="s">
         <v>206</v>
@@ -14576,7 +14618,7 @@
         <v>281.25</v>
       </c>
       <c r="H272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I272" t="s">
         <v>206</v>
@@ -14620,7 +14662,7 @@
         <v>290.175</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I273" t="s">
         <v>206</v>
@@ -14664,7 +14706,7 @@
         <v>38.325</v>
       </c>
       <c r="H274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I274" t="s">
         <v>206</v>
@@ -14708,7 +14750,7 @@
         <v>21.9</v>
       </c>
       <c r="H275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I275" t="s">
         <v>206</v>
@@ -14752,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I276" t="s">
         <v>206</v>
@@ -14796,7 +14838,7 @@
         <v>956.25</v>
       </c>
       <c r="H277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I277" t="s">
         <v>206</v>
@@ -14840,7 +14882,7 @@
         <v>335.34375</v>
       </c>
       <c r="H278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I278" t="s">
         <v>206</v>
@@ -14884,7 +14926,7 @@
         <v>19.2501</v>
       </c>
       <c r="H279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I279" t="s">
         <v>206</v>
@@ -14928,7 +14970,7 @@
         <v>675</v>
       </c>
       <c r="H280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I280" t="s">
         <v>206</v>
@@ -14972,7 +15014,7 @@
         <v>12.702</v>
       </c>
       <c r="H281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I281" t="s">
         <v>206</v>
@@ -15016,7 +15058,7 @@
         <v>225</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I282" t="s">
         <v>206</v>
@@ -15060,7 +15102,7 @@
         <v>337.5</v>
       </c>
       <c r="H283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I283" t="s">
         <v>206</v>
@@ -15104,7 +15146,7 @@
         <v>40.515</v>
       </c>
       <c r="H284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I284" t="s">
         <v>206</v>
@@ -15148,7 +15190,7 @@
         <v>225</v>
       </c>
       <c r="H285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I285" t="s">
         <v>206</v>
@@ -15192,7 +15234,7 @@
         <v>450</v>
       </c>
       <c r="H286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I286" t="s">
         <v>206</v>
@@ -15236,7 +15278,7 @@
         <v>31.2075</v>
       </c>
       <c r="H287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I287" t="s">
         <v>206</v>
@@ -15280,7 +15322,7 @@
         <v>450</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I288" t="s">
         <v>206</v>
@@ -15324,7 +15366,7 @@
         <v>225</v>
       </c>
       <c r="H289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I289" t="s">
         <v>206</v>
@@ -15368,7 +15410,7 @@
         <v>191.625</v>
       </c>
       <c r="H290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I290" t="s">
         <v>206</v>
@@ -15412,7 +15454,7 @@
         <v>1012.5</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I291" t="s">
         <v>206</v>
@@ -15456,7 +15498,7 @@
         <v>367.53675</v>
       </c>
       <c r="H292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I292" t="s">
         <v>206</v>
@@ -15500,7 +15542,7 @@
         <v>711.95805</v>
       </c>
       <c r="H293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I293" t="s">
         <v>206</v>
@@ -15544,7 +15586,7 @@
         <v>38.325</v>
       </c>
       <c r="H294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I294" t="s">
         <v>206</v>
@@ -15588,7 +15630,7 @@
         <v>21.9</v>
       </c>
       <c r="H295" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I295" t="s">
         <v>206</v>
@@ -15632,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I296" t="s">
         <v>206</v>
@@ -15676,7 +15718,7 @@
         <v>450</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I297" t="s">
         <v>206</v>
@@ -15720,7 +15762,7 @@
         <v>325.215</v>
       </c>
       <c r="H298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I298" t="s">
         <v>206</v>
@@ -15764,7 +15806,7 @@
         <v>506.25</v>
       </c>
       <c r="H299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I299" t="s">
         <v>206</v>
@@ -15808,7 +15850,7 @@
         <v>186.590675</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I300" t="s">
         <v>206</v>
@@ -15852,7 +15894,7 @@
         <v>40.40625</v>
       </c>
       <c r="H301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I301" t="s">
         <v>206</v>
@@ -15896,7 +15938,7 @@
         <v>76.340875</v>
       </c>
       <c r="H302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I302" t="s">
         <v>206</v>
@@ -15940,7 +15982,7 @@
         <v>17.21845</v>
       </c>
       <c r="H303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I303" t="s">
         <v>206</v>
@@ -15984,7 +16026,7 @@
         <v>9.051</v>
       </c>
       <c r="H304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I304" t="s">
         <v>206</v>
@@ -16028,7 +16070,7 @@
         <v>23.16625</v>
       </c>
       <c r="H305" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I305" t="s">
         <v>206</v>
@@ -16072,7 +16114,7 @@
         <v>337.5</v>
       </c>
       <c r="H306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I306" t="s">
         <v>206</v>
@@ -16116,7 +16158,7 @@
         <v>1237.5</v>
       </c>
       <c r="H307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I307" t="s">
         <v>206</v>
@@ -16160,7 +16202,7 @@
         <v>191.25625</v>
       </c>
       <c r="H308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I308" t="s">
         <v>206</v>
@@ -16204,7 +16246,7 @@
         <v>7.9735</v>
       </c>
       <c r="H309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I309" t="s">
         <v>206</v>
@@ -16248,7 +16290,7 @@
         <v>3.12475</v>
       </c>
       <c r="H310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I310" t="s">
         <v>206</v>
@@ -16292,7 +16334,7 @@
         <v>225</v>
       </c>
       <c r="H311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I311" t="s">
         <v>206</v>
@@ -16336,7 +16378,7 @@
         <v>393.75</v>
       </c>
       <c r="H312" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I312" t="s">
         <v>206</v>
@@ -16380,7 +16422,7 @@
         <v>52.5</v>
       </c>
       <c r="H313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I313" t="s">
         <v>206</v>
@@ -16424,7 +16466,7 @@
         <v>281.25</v>
       </c>
       <c r="H314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I314" t="s">
         <v>206</v>
@@ -16468,7 +16510,7 @@
         <v>12.660625</v>
       </c>
       <c r="H315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I315" t="s">
         <v>206</v>
@@ -16512,7 +16554,7 @@
         <v>112.5</v>
       </c>
       <c r="H316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I316" t="s">
         <v>206</v>
@@ -16556,7 +16598,7 @@
         <v>45.44895</v>
       </c>
       <c r="H317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I317" t="s">
         <v>206</v>
@@ -16600,7 +16642,7 @@
         <v>618.75</v>
       </c>
       <c r="H318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I318" t="s">
         <v>206</v>
@@ -16644,7 +16686,7 @@
         <v>450</v>
       </c>
       <c r="H319" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I319" t="s">
         <v>206</v>
@@ -16688,7 +16730,7 @@
         <v>337.5</v>
       </c>
       <c r="H320" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I320" t="s">
         <v>206</v>
@@ -16732,7 +16774,7 @@
         <v>99.420925</v>
       </c>
       <c r="H321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I321" t="s">
         <v>206</v>
@@ -16776,7 +16818,7 @@
         <v>189.209</v>
       </c>
       <c r="H322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I322" t="s">
         <v>206</v>
@@ -16820,7 +16862,7 @@
         <v>271.50845</v>
       </c>
       <c r="H323" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I323" t="s">
         <v>206</v>
@@ -16864,7 +16906,7 @@
         <v>337.5</v>
       </c>
       <c r="H324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I324" t="s">
         <v>206</v>
@@ -16908,7 +16950,7 @@
         <v>393.75</v>
       </c>
       <c r="H325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I325" t="s">
         <v>206</v>
@@ -16952,7 +16994,7 @@
         <v>146.00125</v>
       </c>
       <c r="H326" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I326" t="s">
         <v>206</v>
@@ -16996,7 +17038,7 @@
         <v>41.1605</v>
       </c>
       <c r="H327" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I327" t="s">
         <v>206</v>
@@ -17040,7 +17082,7 @@
         <v>264.8495</v>
       </c>
       <c r="H328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I328" t="s">
         <v>206</v>
@@ -17084,7 +17126,7 @@
         <v>845.4927</v>
       </c>
       <c r="H329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I329" t="s">
         <v>206</v>
@@ -17128,7 +17170,7 @@
         <v>168.75</v>
       </c>
       <c r="H330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I330" t="s">
         <v>206</v>
@@ -17172,7 +17214,7 @@
         <v>6.949875</v>
       </c>
       <c r="H331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I331" t="s">
         <v>206</v>
@@ -17216,7 +17258,7 @@
         <v>6.130975</v>
       </c>
       <c r="H332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I332" t="s">
         <v>206</v>
@@ -17260,7 +17302,7 @@
         <v>337.5</v>
       </c>
       <c r="H333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I333" t="s">
         <v>206</v>
@@ -17304,7 +17346,7 @@
         <v>1952.483875</v>
       </c>
       <c r="H334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I334" t="s">
         <v>206</v>
@@ -17348,7 +17390,7 @@
         <v>112.5</v>
       </c>
       <c r="H335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I335" t="s">
         <v>206</v>
@@ -17392,7 +17434,7 @@
         <v>52.355725</v>
       </c>
       <c r="H336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I336" t="s">
         <v>206</v>
@@ -17436,7 +17478,7 @@
         <v>450</v>
       </c>
       <c r="H337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I337" t="s">
         <v>206</v>
@@ -17480,7 +17522,7 @@
         <v>686.744625</v>
       </c>
       <c r="H338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I338" t="s">
         <v>206</v>
@@ -17524,7 +17566,7 @@
         <v>131.616625</v>
       </c>
       <c r="H339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I339" t="s">
         <v>206</v>
@@ -17568,7 +17610,7 @@
         <v>157.5</v>
       </c>
       <c r="H340" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I340" t="s">
         <v>206</v>
@@ -17612,7 +17654,7 @@
         <v>112.5</v>
       </c>
       <c r="H341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I341" t="s">
         <v>206</v>
@@ -17656,7 +17698,7 @@
         <v>225</v>
       </c>
       <c r="H342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I342" t="s">
         <v>206</v>
@@ -17700,7 +17742,7 @@
         <v>345.0155</v>
       </c>
       <c r="H343" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I343" t="s">
         <v>206</v>
@@ -17744,7 +17786,7 @@
         <v>731.25</v>
       </c>
       <c r="H344" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I344" t="s">
         <v>206</v>
@@ -17788,7 +17830,7 @@
         <v>172.50775</v>
       </c>
       <c r="H345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I345" t="s">
         <v>206</v>
@@ -17832,7 +17874,7 @@
         <v>337.5</v>
       </c>
       <c r="H346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I346" t="s">
         <v>206</v>
@@ -17876,7 +17918,7 @@
         <v>562.5</v>
       </c>
       <c r="H347" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I347" t="s">
         <v>206</v>
@@ -17920,7 +17962,7 @@
         <v>-562.5</v>
       </c>
       <c r="H348" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I348" t="s">
         <v>206</v>
@@ -17964,7 +18006,7 @@
         <v>225</v>
       </c>
       <c r="H349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I349" t="s">
         <v>206</v>
@@ -18008,7 +18050,7 @@
         <v>281.25</v>
       </c>
       <c r="H350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I350" t="s">
         <v>206</v>
@@ -18073,283 +18115,283 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>393.75</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1965.22455</v>
+        <v>2818.02365</v>
       </c>
       <c r="E2">
-        <v>225</v>
+        <v>4410.0067</v>
       </c>
       <c r="F2">
-        <v>1448.685</v>
+        <v>1856.25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5044.2363</v>
       </c>
       <c r="H2">
-        <v>1448.685</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5087.59455</v>
+        <v>14522.26665</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2465.0565</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3836.80905</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3579.37</v>
       </c>
       <c r="F3">
-        <v>4687.52595</v>
+        <v>337.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1143.8931</v>
       </c>
       <c r="I3">
-        <v>4687.52595</v>
+        <v>11362.62865</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B4">
-        <v>1347.638375</v>
+        <v>618.75</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>1947.323475</v>
       </c>
       <c r="E4">
-        <v>168.75</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4794.71885</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1915.25625</v>
       </c>
       <c r="I4">
-        <v>1966.388375</v>
+        <v>9276.048575000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B5">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1388.7423</v>
       </c>
       <c r="D5">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>830.12945</v>
+        <v>618.75</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3766.7141</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3180.140525</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>134.591625</v>
       </c>
       <c r="I5">
-        <v>1156.37945</v>
+        <v>9088.938549999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B6">
-        <v>393.75</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2818.02365</v>
+        <v>1050.65685</v>
       </c>
       <c r="E6">
-        <v>4410.0067</v>
+        <v>2419.5535</v>
       </c>
       <c r="F6">
-        <v>1856.25</v>
+        <v>1968</v>
       </c>
       <c r="G6">
-        <v>5044.2363</v>
+        <v>1158.375</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14522.26665</v>
+        <v>6596.58535</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1183.26125</v>
       </c>
       <c r="C7">
-        <v>1310.84385</v>
+        <v>859.0235</v>
       </c>
       <c r="D7">
-        <v>548.4952499999999</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2850.825475</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>243</v>
+        <v>1294.6953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2102.3391</v>
+        <v>6187.805525000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2514.983875</v>
       </c>
       <c r="C8">
-        <v>2465.0565</v>
+        <v>450</v>
       </c>
       <c r="D8">
-        <v>3836.80905</v>
+        <v>719.2162499999999</v>
       </c>
       <c r="E8">
-        <v>3579.37</v>
+        <v>1047.402</v>
       </c>
       <c r="F8">
-        <v>337.5</v>
+        <v>1222.388</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1143.8931</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11362.62865</v>
+        <v>5953.990124999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B9">
-        <v>2514.983875</v>
+        <v>164.855725</v>
       </c>
       <c r="C9">
-        <v>450</v>
+        <v>393.75</v>
       </c>
       <c r="D9">
-        <v>719.2162499999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1047.402</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1222.388</v>
+        <v>3110.594625</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1651.125</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5953.990124999999</v>
+        <v>5320.325349999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10">
-        <v>1183.26125</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>859.0235</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1965.22455</v>
       </c>
       <c r="E10">
-        <v>2850.825475</v>
+        <v>225</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1448.685</v>
       </c>
       <c r="G10">
-        <v>1294.6953</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1448.685</v>
       </c>
       <c r="I10">
-        <v>6187.805525000001</v>
+        <v>5087.59455</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>225</v>
+        <v>2152.2198</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1068.75</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1736.38375</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -18358,18 +18400,18 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>225</v>
+        <v>4957.35355</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B12">
-        <v>164.855725</v>
+        <v>2656.76595</v>
       </c>
       <c r="C12">
-        <v>393.75</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -18378,62 +18420,62 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3110.594625</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1651.125</v>
+        <v>1878.71625</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I12">
-        <v>5320.325349999999</v>
+        <v>4778.4822</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>296.175</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>406.7589</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4687.52595</v>
       </c>
       <c r="G13">
-        <v>1786.21395</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2489.14785</v>
+        <v>4687.52595</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1268.36125</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="E14">
-        <v>438.75</v>
+        <v>1576.625</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -18442,10 +18484,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>501.4845</v>
       </c>
       <c r="I14">
-        <v>438.75</v>
+        <v>4681.47075</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -18479,74 +18521,74 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2152.2198</v>
+        <v>296.175</v>
       </c>
       <c r="D16">
-        <v>1068.75</v>
+        <v>406.7589</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1736.38375</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1786.21395</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4957.35355</v>
+        <v>2489.14785</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B17">
-        <v>618.75</v>
+        <v>346.410625</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>416.625</v>
       </c>
       <c r="D17">
-        <v>1947.323475</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4794.71885</v>
+        <v>112.5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1006.28685</v>
       </c>
       <c r="H17">
-        <v>1915.25625</v>
+        <v>396.207525</v>
       </c>
       <c r="I17">
-        <v>9276.048575000001</v>
+        <v>2278.03</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B18">
-        <v>157.94895</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1310.84385</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>548.4952499999999</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -18555,47 +18597,47 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>157.94895</v>
+        <v>2102.3391</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B19">
-        <v>181.83085</v>
+        <v>1347.638375</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>168.75</v>
       </c>
       <c r="F19">
-        <v>393.75</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>496.8405</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1072.42135</v>
+        <v>1966.388375</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -18604,13 +18646,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>168.75</v>
       </c>
       <c r="E20">
-        <v>393.75</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1454.87295</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -18619,157 +18661,157 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>393.75</v>
+        <v>1623.62295</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>775.2149999999999</v>
       </c>
       <c r="D21">
-        <v>217.55625</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>467.4375</v>
       </c>
       <c r="G21">
-        <v>554.73375</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>772.29</v>
+        <v>1467.6525</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1050.65685</v>
+        <v>56.25</v>
       </c>
       <c r="E22">
-        <v>2419.5535</v>
+        <v>830.12945</v>
       </c>
       <c r="F22">
-        <v>1968</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1158.375</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6596.58535</v>
+        <v>1156.37945</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>181.83085</v>
       </c>
       <c r="C23">
-        <v>1388.7423</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>618.75</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3766.7141</v>
+        <v>393.75</v>
       </c>
       <c r="G23">
-        <v>3180.140525</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>134.591625</v>
+        <v>496.8405</v>
       </c>
       <c r="I23">
-        <v>9088.938549999999</v>
+        <v>1072.42135</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>481.2075</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="E24">
-        <v>710.5054</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>710.5054</v>
+        <v>996.4575</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B25">
-        <v>281.25</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>481.2075</v>
+        <v>378.015</v>
       </c>
       <c r="D25">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>463.436425</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>121.5</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>996.4575</v>
+        <v>841.451425</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -18778,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>217.55625</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -18787,18 +18829,18 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>326.53125</v>
+        <v>554.73375</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>326.53125</v>
+        <v>772.29</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -18807,10 +18849,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>168.75</v>
+        <v>710.5054</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -18822,24 +18864,24 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>281.25</v>
+        <v>710.5054</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B28">
-        <v>1268.36125</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>225</v>
+        <v>631.65</v>
       </c>
       <c r="D28">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1576.625</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -18848,15 +18890,15 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>501.4845</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>4681.47075</v>
+        <v>631.65</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -18868,10 +18910,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>438.75</v>
       </c>
       <c r="F29">
-        <v>337.5</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -18880,24 +18922,24 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>337.5</v>
+        <v>438.75</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>378.015</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>463.436425</v>
+        <v>393.75</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -18909,18 +18951,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>841.451425</v>
+        <v>393.75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B31">
-        <v>346.410625</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>416.625</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -18929,27 +18971,27 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>112.5</v>
+        <v>337.5</v>
       </c>
       <c r="G31">
-        <v>1006.28685</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>396.207525</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2278.03</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B32">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>775.2149999999999</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -18958,21 +19000,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>467.4375</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>326.53125</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1467.6525</v>
+        <v>326.53125</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -18981,13 +19023,13 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>112.5</v>
+      </c>
+      <c r="E33">
         <v>168.75</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
-        <v>1454.87295</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -18996,18 +19038,18 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1623.62295</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>631.65</v>
+        <v>225</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -19025,15 +19067,15 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>631.65</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B35">
-        <v>2656.76595</v>
+        <v>157.94895</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -19048,13 +19090,490 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1878.71625</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4778.4822</v>
+        <v>157.94895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44620</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44712</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2">
+        <v>571.864</v>
+      </c>
+      <c r="C2">
+        <v>3264.6063</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1369.755</v>
+      </c>
+      <c r="H2">
+        <v>5206.2253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>864.54125</v>
+      </c>
+      <c r="G3">
+        <v>2431.40625</v>
+      </c>
+      <c r="H3">
+        <v>3295.9475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>900.6030000000001</v>
+      </c>
+      <c r="D4">
+        <v>610.3723749999999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1348.2</v>
+      </c>
+      <c r="H4">
+        <v>2859.175375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>477.15675</v>
+      </c>
+      <c r="E5">
+        <v>459.63285</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>936.7896000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6">
+        <v>586.2075</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>586.2075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>281.25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>168.75</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>168.75</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>91.98524999999999</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>91.98524999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44651</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>1821.81125</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1934.81125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1332.33</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1332.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>559.323875</v>
+      </c>
+      <c r="E4">
+        <v>559.323875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44651</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>1821.81125</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1934.81125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1332.33</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1332.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>559.323875</v>
+      </c>
+      <c r="E4">
+        <v>559.323875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
